--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>var xx:Int;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,20 +31,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*ba3r24gsa331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Foo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1  222   3   13
-  1</t>
+    <t>"中文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -416,21 +407,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="54">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>var xx:Int;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,30 @@
   </si>
   <si>
     <t>"中文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var aaa:Int;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function bbb(bar:Int):Int;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i:Int,sheet1:Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var ttt:String;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +411,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -431,12 +455,47 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -17,20 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>var xx:Int;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>function xxx(bar:Int):Int;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>var s:String;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Foo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,11 +47,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i:Int,sheet1:Sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>var ttt:String;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i:Int,?sheet1:Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?x:Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx:Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var bar:Bar = null; var b:Int = 35;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 这一行全部都是注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,41 +436,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -455,44 +514,52 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -17,9 +17,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>function xxx(bar:Int):Int;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>"中文"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var aaa:Int;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function bbb(bar:Int):Int;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var ttt:String;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?x:Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var bar:Bar = null; var b:Int = 35;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3:Sheet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Foo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Foo2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx:Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s:String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if cs
+function xxx(bar:Int):Int;
+#end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 这一列是注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"b的值是"+b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 对于不重要的类名，可以直接自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo4</t>
+  </si>
+  <si>
+    <t>Foo5</t>
+  </si>
+  <si>
+    <t>Foo6</t>
+  </si>
+  <si>
+    <t>Foo7</t>
+  </si>
+  <si>
+    <t>Foo8</t>
+  </si>
+  <si>
+    <t>Foo9</t>
+  </si>
+  <si>
+    <t>s1:Foo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -27,67 +139,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"中文"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var aaa:Int;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function bbb(bar:Int):Int;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var ttt:String;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i:Int,?sheet1:Sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?x:Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx:Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s:String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var bar:Bar = null; var b:Int = 35;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 这一行全部都是注释</t>
+    <t>// 与工作表同名的行包含了每一列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i:Int,?foo3:Foo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +167,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,22 +211,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="2" builtinId="19"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,75 +558,122 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A2:XFD2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -514,52 +683,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Foo" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>"中文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +64,6 @@
   </si>
   <si>
     <t>Foo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new Foo()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new Foo2()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>// 对于不重要的类名，可以直接自动生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Foo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +132,30 @@
   </si>
   <si>
     <t>i:Int,?foo3:Foo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foo2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x*2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar(3).bbb(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 不重要的类名，直接在Excel中往下拉就会自动生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,12 +247,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -560,16 +575,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.75" bestFit="1" customWidth="1"/>
@@ -577,34 +592,34 @@
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="41.25" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -616,61 +631,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1"/>
+    <row r="4" spans="1:6" s="2" customFormat="1"/>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A4:XFD4"/>
+  <mergeCells count="2">
     <mergeCell ref="A6:XFD6"/>
     <mergeCell ref="A2:XFD2"/>
   </mergeCells>
@@ -683,10 +697,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -714,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -722,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -734,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -744,11 +758,29 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>"中文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx:Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +152,18 @@
   </si>
   <si>
     <t>// 不重要的类名，直接在Excel中往下拉就会自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx:Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si:StringInterpolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx=$xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,10 +277,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,13 +581,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -592,7 +600,7 @@
     <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="41.25" thickBot="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="41.25" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -600,26 +608,29 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -631,8 +642,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1"/>
-    <row r="5" spans="1:6">
+    <row r="4" spans="1:7" s="2" customFormat="1"/>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -640,47 +651,50 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -736,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -748,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -759,28 +773,28 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
+++ b/src/test-haxe/com/qifun/qforce/importCsv/TestConfig.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Foo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="import" sheetId="4" r:id="rId4"/>
+    <sheet name="using" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <webPublishing codePage="65001"/>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>"中文"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +166,29 @@
   </si>
   <si>
     <t>xx=$xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringTools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttt.startsWith("")?1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.qifun.qforce.importCsv.StringInterpolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haxe.ds.Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch (None) {
+case None: 1;
+case Some(v): 2;
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +612,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -677,9 +702,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="135">
       <c r="A10" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -714,7 +742,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -793,6 +821,9 @@
         <v>28</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
@@ -817,4 +848,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>